--- a/ML/DT.xlsx
+++ b/ML/DT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -29,16 +29,19 @@
     <t xml:space="preserve">C5.0 - k</t>
   </si>
   <si>
-    <t xml:space="preserve">0.847174016121385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833333333333333</t>
+    <t xml:space="preserve">0.84780811175548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855932203389831</t>
   </si>
   <si>
     <t xml:space="preserve">100X Bagging</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954177897574124</t>
+    <t xml:space="preserve">0.949333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889830508474576</t>
   </si>
   <si>
     <t xml:space="preserve">Boosting</t>
@@ -47,85 +50,88 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891666666666667</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adaboost</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865580448065173</t>
+    <t xml:space="preserve">0.864097363083164</t>
   </si>
   <si>
     <t xml:space="preserve">Random Forest - k</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840644065117749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.841666666666667</t>
+    <t xml:space="preserve">0.836037130247657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898305084745763</t>
   </si>
   <si>
     <t xml:space="preserve">Random Forest - ROC</t>
   </si>
   <si>
-    <t xml:space="preserve">-Inf</t>
+    <t xml:space="preserve">0.896853524561858</t>
   </si>
   <si>
     <t xml:space="preserve">C5.0 - ROC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.900491142191142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819647937411095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819407008086253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820773930753564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743088694638695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851370712818081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867617107942974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840130393551446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900835431235431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849577999051683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951482479784367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875763747454175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843081239133871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898298018648019</t>
+    <t xml:space="preserve">0.893321030821031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88135593220339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816028923660503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822033898305085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817444219066937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726725103600104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.747451113701114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849436116278222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.847457627118644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882352941176471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836648429806325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896900738150738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896263597513598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846151657730605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872881355932203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886409736308316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839308822993034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897156554864888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895031619614953</t>
   </si>
 </sst>
 </file>
@@ -487,18 +493,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -531,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -542,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +581,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -586,21 +592,21 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +614,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +625,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +636,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +647,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -677,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -691,18 +697,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -710,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -721,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -732,10 +738,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -743,10 +749,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +785,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -790,21 +796,21 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -812,10 +818,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -823,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -834,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -845,10 +851,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
